--- a/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ajaxproto\files\menus\mtbenson_market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30DAD19-3999-4142-8D08-DEE86D8026B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE139B0D-DDE5-4802-B311-05F09CD7A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Ingredients</t>
   </si>
@@ -100,6 +99,9 @@
   </si>
   <si>
     <t>Nutrition Label</t>
+  </si>
+  <si>
+    <t>LeaveEmpty</t>
   </si>
 </sst>
 </file>
@@ -164,15 +166,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
     <tableColumn id="7" xr3:uid="{364DC3EB-6DF2-4CD4-84D8-820702E66F1F}" name="Allergens"/>
     <tableColumn id="3" xr3:uid="{9F2485F9-EFCE-415F-9AF4-2B5A16080CD5}" name="LocalIngredients"/>
     <tableColumn id="4" xr3:uid="{11D88A0B-C840-4F23-81DF-C249BC9C7872}" name="Diet"/>
     <tableColumn id="5" xr3:uid="{378390CC-E66E-4719-939E-E825F4A2EB3E}" name="Nutrition Label"/>
+    <tableColumn id="6" xr3:uid="{7DBDBAB5-8C78-4F84-8F6A-05BB55366AC5}" name="LeaveEmpty"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +513,11 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -531,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -551,12 +557,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>

--- a/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE139B0D-DDE5-4802-B311-05F09CD7A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4868D9-1BE9-40F3-ABB6-254982F7DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="12405" yWindow="1620" windowWidth="24345" windowHeight="16710" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="handhelds_mtbenson" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Ingredients</t>
   </si>
@@ -50,65 +50,77 @@
     <t>ItemName</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
-    <t>Falafel</t>
-  </si>
-  <si>
     <t>Tuna Salad</t>
   </si>
   <si>
-    <t>Chicken Salad</t>
-  </si>
-  <si>
     <t>Nutrition Label</t>
   </si>
   <si>
     <t>LeaveEmpty</t>
+  </si>
+  <si>
+    <t>Chicken Caesar Wrap</t>
+  </si>
+  <si>
+    <t>Turkey Sandwich</t>
+  </si>
+  <si>
+    <t>Turkey Wrap</t>
+  </si>
+  <si>
+    <t>Ham &amp; Cheese</t>
+  </si>
+  <si>
+    <t>Roast Beef</t>
+  </si>
+  <si>
+    <t>Italian Sandwich</t>
+  </si>
+  <si>
+    <t>Falafel Wrap</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>Tuna / Mayo / Red Onion / Celery / Dill / Lettuce</t>
+  </si>
+  <si>
+    <t>Roasted Chicken / Parmesan / Romaine Caesar Dressing</t>
+  </si>
+  <si>
+    <t>Turkey / Swiss cheese / Red Onion / Tomato / Lettuce / Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Turkey / Lettuce / Tomato / Cucumber / Red Onion / Spicy Mayo</t>
+  </si>
+  <si>
+    <t>Ham / Swiss Cheese / Red Onion / Pickles / Tomato / Honey Dijon Aioli</t>
+  </si>
+  <si>
+    <t>Roast beef /  Swiss Cheese /  Red Onion /  Tomato / Lettuce / Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Falafel / Red Onion / Cucumber / Tomato / Feta / Tatziki / Lettuce</t>
+  </si>
+  <si>
+    <t>Salami / Swiss Cheese / Tomato / Onion / Lettuce / Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Wheat, eggs, mustard, fish.</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, mustard.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +130,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +162,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -478,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -486,8 +531,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -502,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -511,71 +556,205 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4868D9-1BE9-40F3-ABB6-254982F7DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DB25F-C2AD-4EF3-9EAF-77A8135C12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="1620" windowWidth="24345" windowHeight="16710" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="4350" yWindow="4635" windowWidth="23520" windowHeight="14175" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="handhelds_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Ingredients</t>
   </si>
@@ -89,31 +89,82 @@
     <t>Tuna / Mayo / Red Onion / Celery / Dill / Lettuce</t>
   </si>
   <si>
-    <t>Roasted Chicken / Parmesan / Romaine Caesar Dressing</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss cheese / Red Onion / Tomato / Lettuce / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Lettuce / Tomato / Cucumber / Red Onion / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Ham / Swiss Cheese / Red Onion / Pickles / Tomato / Honey Dijon Aioli</t>
-  </si>
-  <si>
-    <t>Roast beef /  Swiss Cheese /  Red Onion /  Tomato / Lettuce / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Falafel / Red Onion / Cucumber / Tomato / Feta / Tatziki / Lettuce</t>
-  </si>
-  <si>
-    <t>Salami / Swiss Cheese / Tomato / Onion / Lettuce / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Wheat, eggs, mustard, fish.</t>
-  </si>
-  <si>
-    <t>Wheat, milk, eggs, mustard.</t>
+    <t>Fresh Start Romaine, Castle Cheese Parmesan</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Chicken_Caesar_Wrap</t>
+  </si>
+  <si>
+    <t>Tuna_Salad</t>
+  </si>
+  <si>
+    <t>BC, VEG</t>
+  </si>
+  <si>
+    <t>Island City Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, eggs, mustard, fish. Bread made in a facility that also processes: peanuts, crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>Crispy Chicken / Bacon / Romaine / Caesar Dressing /  Parmesan / Sundried Tomato Tortilla</t>
+  </si>
+  <si>
+    <t>Turkey / Lettuce / Tomato /  Red Onion / Spicy Mayo / Sundried Tomato Tortilla</t>
+  </si>
+  <si>
+    <t>Ham / Swiss Cheese / Red Onion / Pickles / Tomato / Honey Dijon Aioli / Multigrain Bread</t>
+  </si>
+  <si>
+    <t>Roast beef /  Swiss Cheese /  Red Onion /  Tomato / Lettuce / Garlic Aioli /  Multigrain Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salami / Swiss Cheese / Tomato / Onion / Lettuce / Garlic Aioli / Ciabatta </t>
+  </si>
+  <si>
+    <t>Turkey_Sandwich</t>
+  </si>
+  <si>
+    <t>Fresh Start Tomato</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, mustard, fish. Sriracha contains anchovy.</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, soy, mustard.</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, mustard.</t>
+  </si>
+  <si>
+    <t>Turkey_Wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, gluten, milk, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>Falafel / Red Onion / Cucumber / Tomato / Feta / Tzatziki / Lettuce / Sundried Tomato Tortilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, milk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, gluten, milk, eggs, sulphites, mustard </t>
+  </si>
+  <si>
+    <t>Turkey / Swiss Cheese / Red Onion / Tomato / Lettuce / Garlic Aioli / Multigrain Bread</t>
+  </si>
+  <si>
+    <t>Fresh Start Tomato ,Island City Bread</t>
+  </si>
+  <si>
+    <t>Zorba's Tzatziki, Fresh Start Cucumber, Fresh Start Tomato</t>
+  </si>
+  <si>
+    <t>Fresh Start Tomato ,Island City Bread, Castle Cheese Swiss</t>
   </si>
 </sst>
 </file>
@@ -162,34 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -523,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -566,195 +594,161 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DB25F-C2AD-4EF3-9EAF-77A8135C12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DD9A8-B1D7-4707-BF22-215243970647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4635" windowWidth="23520" windowHeight="14175" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="handhelds_mtbenson" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Falafel Wrap</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
     <t>Tuna / Mayo / Red Onion / Celery / Dill / Lettuce</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Fresh Start Tomato ,Island City Bread, Castle Cheese Swiss</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,19 +595,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,19 +615,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,19 +635,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,19 +655,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,19 +675,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,19 +695,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,19 +715,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,19 +735,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
+++ b/files/menus/mtbenson_market/handhelds_mtbenson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DD9A8-B1D7-4707-BF22-215243970647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421BD63-27C6-45BC-BED7-0AD1CDEE4A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="12510" yWindow="3165" windowWidth="25845" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="handhelds_mtbenson" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Ingredients</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Falafel Wrap</t>
   </si>
   <si>
-    <t>Tuna / Mayo / Red Onion / Celery / Dill / Lettuce</t>
-  </si>
-  <si>
     <t>Fresh Start Romaine, Castle Cheese Parmesan</t>
   </si>
   <si>
@@ -113,15 +110,9 @@
     <t>Turkey / Lettuce / Tomato /  Red Onion / Spicy Mayo / Sundried Tomato Tortilla</t>
   </si>
   <si>
-    <t>Ham / Swiss Cheese / Red Onion / Pickles / Tomato / Honey Dijon Aioli / Multigrain Bread</t>
-  </si>
-  <si>
     <t>Roast beef /  Swiss Cheese /  Red Onion /  Tomato / Lettuce / Garlic Aioli /  Multigrain Bread</t>
   </si>
   <si>
-    <t xml:space="preserve">Salami / Swiss Cheese / Tomato / Onion / Lettuce / Garlic Aioli / Ciabatta </t>
-  </si>
-  <si>
     <t>Turkey_Sandwich</t>
   </si>
   <si>
@@ -143,28 +134,46 @@
     <t xml:space="preserve">Wheat, gluten, milk, eggs, mustard. </t>
   </si>
   <si>
-    <t>Falafel / Red Onion / Cucumber / Tomato / Feta / Tzatziki / Lettuce / Sundried Tomato Tortilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wheat, milk. </t>
   </si>
   <si>
-    <t xml:space="preserve">Wheat, gluten, milk, eggs, sulphites, mustard </t>
-  </si>
-  <si>
     <t>Turkey / Swiss Cheese / Red Onion / Tomato / Lettuce / Garlic Aioli / Multigrain Bread</t>
   </si>
   <si>
-    <t>Fresh Start Tomato ,Island City Bread</t>
-  </si>
-  <si>
     <t>Zorba's Tzatziki, Fresh Start Cucumber, Fresh Start Tomato</t>
   </si>
   <si>
-    <t>Fresh Start Tomato ,Island City Bread, Castle Cheese Swiss</t>
-  </si>
-  <si>
-    <t>placeholder</t>
+    <t>Fresh Start Tomato, Island City Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salami / Swiss Cheese / Tomato / Onion / Lettuce / Garlic Aioli / Sourdough Club </t>
+  </si>
+  <si>
+    <t>Fresh Start Tomato, Castle Cheese Swiss, Nesvog Meats Salami</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs, sulphites, mustard.</t>
+  </si>
+  <si>
+    <t>Ham / Swiss Cheese / Red Onion / Pickles / Tomato / Lettuce / Honey Dijon Aioli / Multigrain Bread</t>
+  </si>
+  <si>
+    <t>Falafel / Red Onion / Cucumber / Tomato / Feta / Lettuce / Tzatziki / Sundried Tomato Tortilla</t>
+  </si>
+  <si>
+    <t>Tuna / Red Onion / Celery / Pickles / Dill / Lemon / Garlic / Salt&amp;Pepper / Lettuce / Mayo / Multigrain Bread</t>
+  </si>
+  <si>
+    <t>Ham_&amp;_Cheese</t>
+  </si>
+  <si>
+    <t>Roast_Beef</t>
+  </si>
+  <si>
+    <t>Falafel_Wrap</t>
+  </si>
+  <si>
+    <t>Italian_Sandwich</t>
   </si>
 </sst>
 </file>
@@ -213,19 +222,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -239,16 +279,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:G9" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
-    <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
-    <tableColumn id="7" xr3:uid="{364DC3EB-6DF2-4CD4-84D8-820702E66F1F}" name="Allergens"/>
-    <tableColumn id="3" xr3:uid="{9F2485F9-EFCE-415F-9AF4-2B5A16080CD5}" name="LocalIngredients"/>
-    <tableColumn id="4" xr3:uid="{11D88A0B-C840-4F23-81DF-C249BC9C7872}" name="Diet"/>
-    <tableColumn id="5" xr3:uid="{378390CC-E66E-4719-939E-E825F4A2EB3E}" name="Nutrition Label"/>
-    <tableColumn id="6" xr3:uid="{7DBDBAB5-8C78-4F84-8F6A-05BB55366AC5}" name="LeaveEmpty"/>
+    <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{364DC3EB-6DF2-4CD4-84D8-820702E66F1F}" name="Allergens" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9F2485F9-EFCE-415F-9AF4-2B5A16080CD5}" name="LocalIngredients" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{11D88A0B-C840-4F23-81DF-C249BC9C7872}" name="Diet" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{378390CC-E66E-4719-939E-E825F4A2EB3E}" name="Nutrition Label" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7DBDBAB5-8C78-4F84-8F6A-05BB55366AC5}" name="LeaveEmpty" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,201 +593,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
